--- a/datas/test_data.xlsx
+++ b/datas/test_data.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_test\datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_test\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B33E83-F76C-4D4E-A57E-017A371E766D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="reach" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>case_id</t>
   </si>
@@ -54,60 +52,7 @@
     <t>登录成功</t>
   </si>
   <si>
-    <t>https://newoagate.test.jianbaolife.com/api/login</t>
-  </si>
-  <si>
-    <t>{"username":"tpacs031","password":"d6cecd8d54b40065ae52cc9116e1d5bc","verify_code":111,"type":"oa_sc_login"}</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>账户名错误</t>
-  </si>
-  <si>
-    <t>{"username":"tpacs00","password":"d6cecd8d54b40065ae52cc9116e1d5bc","verify_code":111,"type":"oa_sc_login"}</t>
-  </si>
-  <si>
-    <t>找不到用户</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>密码错误</t>
-  </si>
-  <si>
-    <t>{"username":"tpacs031","password":"cecd8d54b40065ae52cc9116e1d5bc","verify_code":111,"type":"oa_sc_login"}</t>
-  </si>
-  <si>
-    <t>用户名密码错误</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>请求方法错误</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>Request method 'GET' not supported</t>
-  </si>
-  <si>
     <t>成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"${normal_user}","password":"${pwd}","verify_code":111,"type":"oa_sc_login"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"tpacs031","password":"d6cecd8d54b40065ae52cc9116e1d5bc","verify_code":111,"type":"oa_sc_login"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -123,19 +68,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分案查询成功</t>
+    <t>http://10.60.44.244/api/mem/member/login</t>
+  </si>
+  <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
+    <t>{"account": "kylin", "password": "123456", "platformId": 1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +109,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,12 +143,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -195,9 +165,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -508,23 +482,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="11.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="73.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="33.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,217 +525,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="52.5" customWidth="1"/>
-    <col min="4" max="4" width="53.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABCE34F-2235-4A8F-AA03-A7AAF2C3CE88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
